--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.02</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>501079</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>18.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>090020</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大成健康产业混合</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.42</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501079</t>
+          <t>090020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+          <t>大成健康产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.78</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>91.84</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.74</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005477</t>
+          <t>160926</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合A</t>
+          <t>大成创业板两年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>32.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005478</t>
+          <t>501079</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长安鑫禧灵活配置混合C</t>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>79.51</t>
+          <t>18.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9797</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>83.35</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.01</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7801</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>002264</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>华夏乐享健康灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>501079</t>
+          <t>009798</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+          <t>大成创业板两年定期开放混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.67</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4275</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001281</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长安鑫利优选灵活配置混合A</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002072</t>
+          <t>008988</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长安鑫利优选灵活配置混合C</t>
+          <t>大成科技创新混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74.56</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001365</t>
+          <t>009490</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成正向回报灵活配置混合</t>
+          <t>泰康科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.16</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>89.26</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>6.48</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160926</t>
+          <t>008989</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合A</t>
+          <t>大成科技创新混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0853</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009798</t>
+          <t>001365</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成创业板两年定期开放混合C</t>
+          <t>大成正向回报灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002264</t>
+          <t>001281</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏乐享健康灵活配置混合</t>
+          <t>长安鑫利优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008988</t>
+          <t>005477</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大成科技创新混合A</t>
+          <t>长安鑫禧灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>008989</t>
+          <t>002072</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>大成科技创新混合C</t>
+          <t>长安鑫利优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>74.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009490</t>
+          <t>005478</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>泰康科技创新一年定期开放混合</t>
+          <t>长安鑫禧灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>79.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4549</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3379</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1790,4 +1791,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.91</v>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6384</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.88</v>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2174,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.33</v>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9398</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2212,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4688</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2521,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,17 +2533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2552,14 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.41</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2568,14 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.91</v>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2584,14 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.88</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2600,14 +2687,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.33</v>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2616,13 +2725,241 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2842,7 +2843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,17 +2854,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2873,14 +2894,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.95</v>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2889,14 +2932,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.41</v>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3838</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2905,14 +2970,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.91</v>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2921,14 +3008,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.88</v>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2937,14 +3046,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6.33</v>
+          <t>014201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2953,13 +3084,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>014202</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.77</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>5.41</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.91</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>6.33</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>7</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.77</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,27 +678,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4301</t>
+          <t>0.3845</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>94.24</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>9.01</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3838</t>
+          <t>0.3168</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.47</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>7.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2639</t>
+          <t>0.2715</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -775,31 +792,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
+          <t>大摩新兴产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>95.16</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>8.88</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1915</t>
+          <t>0.1758</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -808,111 +825,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014201</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>天弘中证1000指数增强A</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.95</t>
+          <t>94.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0910</t>
+          <t>0.0261</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014202</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -988,26 +929,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3197</t>
+          <t>0.4301</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1016,36 +957,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.3838</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1054,36 +995,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2179</t>
+          <t>0.2639</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1102,26 +1043,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>95.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.1915</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1130,36 +1071,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012369</t>
+          <t>014201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>天弘中证1000指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1168,36 +1109,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013072</t>
+          <t>014202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信医疗服务混合A</t>
+          <t>天弘中证1000指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.32</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1206,34 +1147,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013073</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信医疗服务混合C</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.32</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1242,6 +1185,326 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1715,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2359,7 +2622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2985,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300151-昌红科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.95</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.41</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.91</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>5.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>6.33</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.77</v>
       </c>
     </row>
@@ -616,7 +633,765 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6962</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009798</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008988</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>090020</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成健康产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008989</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3659</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2729</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2229</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -854,328 +1629,6 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012368</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4301</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>233006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大摩领先优势混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3838</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000309</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大摩品质生活精选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2639</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010322</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫新兴产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1915</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>014201</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>天弘中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0910</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>014202</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0373</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012369</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0307</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1251,26 +1704,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3197</t>
+          <t>0.4301</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1279,36 +1732,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000309</t>
+          <t>233006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大摩品质生活精选股票</t>
+          <t>大摩领先优势混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.45</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2376</t>
+          <t>0.3838</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1317,36 +1770,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>233006</t>
+          <t>000309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大摩领先优势混合</t>
+          <t>大摩品质生活精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.42</t>
+          <t>94.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>8.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2179</t>
+          <t>0.2639</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1365,26 +1818,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>95.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1494</t>
+          <t>0.1915</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1393,36 +1846,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012369</t>
+          <t>014201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+          <t>天弘中证1000指数增强A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0910</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1431,36 +1884,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>013072</t>
+          <t>014202</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰信医疗服务混合A</t>
+          <t>天弘中证1000指数增强C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.32</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0373</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1469,34 +1922,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013073</t>
+          <t>012369</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信医疗服务混合C</t>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>73.32</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1505,6 +1960,326 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012368</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3197</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012369</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优享臻选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1978,7 +2753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2224,7 +2999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2622,7 +3397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3246,326 +4021,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160926</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.70</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5351</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>501079</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>18.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.6962</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009798</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>大成创业板两年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.33</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2292</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>008988</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.78</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1414</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>090020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成健康产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008989</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>大成科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001365</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成正向回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>